--- a/2024/data/processed/GCOOS.xlsx
+++ b/2024/data/processed/GCOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2024\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4DF7B-795A-42E7-A36B-E98BA15F3283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF217404-B211-4DFF-95EB-DF007C3B83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="1001">
   <si>
     <t>Station ID</t>
   </si>
@@ -2991,9 +2991,6 @@
   </si>
   <si>
     <t>CoastalMS - Coastal Mississippi Buoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>gov_state</t>
@@ -3772,15 +3769,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E276" sqref="E276"/>
+      <selection pane="bottomLeft" activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3802,9 +3799,9 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3858,9 +3855,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>869</v>
@@ -3912,9 +3909,9 @@
       </c>
       <c r="R2" s="39"/>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>888</v>
@@ -3966,9 +3963,9 @@
       </c>
       <c r="R3" s="39"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="38.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>870</v>
@@ -4020,9 +4017,9 @@
       </c>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="38.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>871</v>
@@ -4074,9 +4071,9 @@
       </c>
       <c r="R5" s="39"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="38.25" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>872</v>
@@ -4128,9 +4125,9 @@
       </c>
       <c r="R6" s="39"/>
     </row>
-    <row r="7" spans="1:18" ht="29.25">
+    <row r="7" spans="1:18" ht="38.25" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>885</v>
@@ -4182,9 +4179,9 @@
       </c>
       <c r="R7" s="39"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="38.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>887</v>
@@ -4236,9 +4233,9 @@
       </c>
       <c r="R8" s="39"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="38.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>884</v>
@@ -4290,9 +4287,9 @@
       </c>
       <c r="R9" s="39"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="38.25" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>873</v>
@@ -4344,9 +4341,9 @@
       </c>
       <c r="R10" s="39"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="38.25" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>874</v>
@@ -4398,9 +4395,9 @@
       </c>
       <c r="R11" s="39"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="38.25" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>886</v>
@@ -4452,9 +4449,9 @@
       </c>
       <c r="R12" s="39"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="38.25" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>883</v>
@@ -4506,9 +4503,9 @@
       </c>
       <c r="R13" s="39"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="38.25" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>882</v>
@@ -4560,9 +4557,9 @@
       </c>
       <c r="R14" s="39"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="38.25" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>881</v>
@@ -4614,9 +4611,9 @@
       </c>
       <c r="R15" s="39"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="38.25" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>877</v>
@@ -4668,9 +4665,9 @@
       </c>
       <c r="R16" s="39"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="38.25" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>880</v>
@@ -4722,9 +4719,9 @@
       </c>
       <c r="R17" s="39"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="38.25" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>878</v>
@@ -4776,9 +4773,9 @@
       </c>
       <c r="R18" s="39"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="38.25" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>876</v>
@@ -4830,9 +4827,9 @@
       </c>
       <c r="R19" s="39"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="38.25" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>879</v>
@@ -4884,9 +4881,9 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="38.25" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>875</v>
@@ -4938,9 +4935,9 @@
       </c>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="38.25" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>889</v>
@@ -4992,9 +4989,9 @@
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="1:18" ht="28.5">
+    <row r="23" spans="1:18" ht="38.25" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>17</v>
@@ -5046,9 +5043,9 @@
       </c>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="43.5">
+    <row r="24" spans="1:18" ht="38.25" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>18</v>
@@ -5100,9 +5097,9 @@
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="43.5">
+    <row r="25" spans="1:18" ht="38.25" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>19</v>
@@ -5153,9 +5150,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="43.5">
+    <row r="26" spans="1:18" ht="38.25" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>20</v>
@@ -5206,9 +5203,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="43.5">
+    <row r="27" spans="1:18" ht="38.25" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>21</v>
@@ -5259,9 +5256,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="43.5">
+    <row r="28" spans="1:18" ht="38.25" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>22</v>
@@ -5312,9 +5309,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="29.25">
+    <row r="29" spans="1:18" ht="38.25" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>23</v>
@@ -5365,9 +5362,9 @@
         <v>767</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="43.5">
+    <row r="30" spans="1:18" ht="38.25" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>24</v>
@@ -5418,9 +5415,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="38.25" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>25</v>
@@ -5471,9 +5468,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="29.25">
+    <row r="32" spans="1:18" ht="38.25" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>26</v>
@@ -5524,9 +5521,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="43.5">
+    <row r="33" spans="1:17" ht="38.25" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>27</v>
@@ -5577,9 +5574,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="57" customFormat="1" ht="29.25">
+    <row r="34" spans="1:17" s="57" customFormat="1" ht="38.25" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>933</v>
@@ -5630,9 +5627,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="43.5">
+    <row r="35" spans="1:17" ht="38.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>28</v>
@@ -5683,9 +5680,9 @@
         <v>771</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="43.5">
+    <row r="36" spans="1:17" ht="38.25" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>29</v>
@@ -5736,9 +5733,9 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="29.25">
+    <row r="37" spans="1:17" ht="38.25" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>30</v>
@@ -5789,9 +5786,9 @@
         <v>773</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" ht="38.25" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>31</v>
@@ -5842,9 +5839,9 @@
         <v>774</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="29.25">
+    <row r="39" spans="1:17" ht="38.25" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>32</v>
@@ -5895,9 +5892,9 @@
         <v>775</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="43.5">
+    <row r="40" spans="1:17" ht="38.25" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>33</v>
@@ -5948,9 +5945,9 @@
         <v>776</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" ht="38.25" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>34</v>
@@ -6001,9 +5998,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="29.25">
+    <row r="42" spans="1:17" ht="38.25" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>35</v>
@@ -6054,9 +6051,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="29.25">
+    <row r="43" spans="1:17" ht="38.25" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>36</v>
@@ -6107,9 +6104,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="29.25">
+    <row r="44" spans="1:17" ht="38.25" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>37</v>
@@ -6160,9 +6157,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="29.25">
+    <row r="45" spans="1:17" ht="38.25" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>39</v>
@@ -6213,9 +6210,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="43.5">
+    <row r="46" spans="1:17" ht="38.25" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>40</v>
@@ -6266,9 +6263,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="43.5">
+    <row r="47" spans="1:17" ht="38.25" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>41</v>
@@ -6319,9 +6316,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="29.25">
+    <row r="48" spans="1:17" ht="38.25" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>42</v>
@@ -6372,9 +6369,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" ht="38.25" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>43</v>
@@ -6425,9 +6422,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" ht="38.25" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>44</v>
@@ -6478,9 +6475,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" ht="38.25" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>45</v>
@@ -6531,9 +6528,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="38.25" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>46</v>
@@ -6584,9 +6581,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="42.75">
+    <row r="53" spans="1:17" ht="38.25" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>47</v>
@@ -6637,9 +6634,9 @@
         <v>780</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" ht="38.25" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>48</v>
@@ -6690,9 +6687,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" ht="38.25" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>49</v>
@@ -6743,9 +6740,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" ht="38.25" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>50</v>
@@ -6796,9 +6793,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="29.25">
+    <row r="57" spans="1:17" ht="38.25" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>51</v>
@@ -6849,9 +6846,9 @@
         <v>781</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="29.25">
+    <row r="58" spans="1:17" ht="38.25" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>52</v>
@@ -6902,9 +6899,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="29.25">
+    <row r="59" spans="1:17" ht="38.25" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>53</v>
@@ -6955,9 +6952,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="29.25">
+    <row r="60" spans="1:17" ht="38.25" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>54</v>
@@ -7008,9 +7005,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="29.25">
+    <row r="61" spans="1:17" ht="38.25" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>55</v>
@@ -7061,9 +7058,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="29.25">
+    <row r="62" spans="1:17" ht="38.25" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>56</v>
@@ -7114,9 +7111,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" ht="38.25" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>57</v>
@@ -7167,9 +7164,9 @@
         <v>774</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="12" customFormat="1">
+    <row r="64" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>58</v>
@@ -7220,9 +7217,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="12" customFormat="1">
+    <row r="65" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>59</v>
@@ -7273,9 +7270,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="12" customFormat="1" ht="29.25">
+    <row r="66" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>60</v>
@@ -7326,9 +7323,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="12" customFormat="1" ht="29.25">
+    <row r="67" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>61</v>
@@ -7379,9 +7376,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="12" customFormat="1">
+    <row r="68" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>62</v>
@@ -7432,9 +7429,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="12" customFormat="1">
+    <row r="69" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>63</v>
@@ -7485,9 +7482,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="12" customFormat="1">
+    <row r="70" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>64</v>
@@ -7538,9 +7535,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="12" customFormat="1">
+    <row r="71" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>65</v>
@@ -7591,9 +7588,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="12" customFormat="1" ht="29.25">
+    <row r="72" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>66</v>
@@ -7644,9 +7641,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="12" customFormat="1" ht="29.25">
+    <row r="73" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>67</v>
@@ -7697,9 +7694,9 @@
         <v>786</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="12" customFormat="1">
+    <row r="74" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>68</v>
@@ -7750,9 +7747,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="12" customFormat="1">
+    <row r="75" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>69</v>
@@ -7803,9 +7800,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="12" customFormat="1">
+    <row r="76" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>70</v>
@@ -7856,9 +7853,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="12" customFormat="1">
+    <row r="77" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>71</v>
@@ -7909,9 +7906,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="12" customFormat="1">
+    <row r="78" spans="1:17" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>72</v>
@@ -7962,9 +7959,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="29.25">
+    <row r="79" spans="1:17" ht="38.25" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>73</v>
@@ -8015,9 +8012,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="29.25">
+    <row r="80" spans="1:17" ht="38.25" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>74</v>
@@ -8068,9 +8065,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="29.25">
+    <row r="81" spans="1:17" ht="38.25" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>75</v>
@@ -8121,9 +8118,9 @@
         <v>787</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" ht="38.25" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>76</v>
@@ -8174,9 +8171,9 @@
         <v>788</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="29.25">
+    <row r="83" spans="1:17" ht="38.25" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>77</v>
@@ -8227,9 +8224,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="29.25">
+    <row r="84" spans="1:17" ht="38.25" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>78</v>
@@ -8280,9 +8277,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="43.5">
+    <row r="85" spans="1:17" ht="38.25" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>79</v>
@@ -8333,9 +8330,9 @@
         <v>790</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="43.5">
+    <row r="86" spans="1:17" ht="38.25" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>80</v>
@@ -8386,9 +8383,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="29.25">
+    <row r="87" spans="1:17" ht="38.25" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>81</v>
@@ -8439,9 +8436,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="29.25">
+    <row r="88" spans="1:17" ht="38.25" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>82</v>
@@ -8492,9 +8489,9 @@
         <v>793</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="29.25">
+    <row r="89" spans="1:17" ht="38.25" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>83</v>
@@ -8545,9 +8542,9 @@
         <v>773</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="29.25">
+    <row r="90" spans="1:17" ht="38.25" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>84</v>
@@ -8598,9 +8595,9 @@
         <v>794</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="29.25">
+    <row r="91" spans="1:17" ht="38.25" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>85</v>
@@ -8651,9 +8648,9 @@
         <v>795</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="29.25">
+    <row r="92" spans="1:17" ht="38.25" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>86</v>
@@ -8704,9 +8701,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="29.25">
+    <row r="93" spans="1:17" ht="38.25" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>87</v>
@@ -8757,9 +8754,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="43.5">
+    <row r="94" spans="1:17" ht="38.25" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>88</v>
@@ -8810,9 +8807,9 @@
         <v>796</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="43.5">
+    <row r="95" spans="1:17" ht="38.25" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>89</v>
@@ -8863,9 +8860,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="43.5">
+    <row r="96" spans="1:17" ht="38.25" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>90</v>
@@ -8916,9 +8913,9 @@
         <v>798</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="43.5">
+    <row r="97" spans="1:17" ht="38.25" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>91</v>
@@ -8969,9 +8966,9 @@
         <v>799</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" ht="38.25" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>92</v>
@@ -9022,9 +9019,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="43.5">
+    <row r="99" spans="1:17" ht="38.25" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>93</v>
@@ -9075,9 +9072,9 @@
         <v>796</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="57.75">
+    <row r="100" spans="1:17" ht="38.25" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>94</v>
@@ -9128,9 +9125,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="43.5">
+    <row r="101" spans="1:17" ht="38.25" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>95</v>
@@ -9181,9 +9178,9 @@
         <v>801</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="43.5">
+    <row r="102" spans="1:17" ht="38.25" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>96</v>
@@ -9234,9 +9231,9 @@
         <v>801</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="43.5">
+    <row r="103" spans="1:17" ht="38.25" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>97</v>
@@ -9287,9 +9284,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="43.5">
+    <row r="104" spans="1:17" ht="38.25" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>98</v>
@@ -9340,9 +9337,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="43.5">
+    <row r="105" spans="1:17" ht="38.25" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>99</v>
@@ -9393,9 +9390,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="29.25">
+    <row r="106" spans="1:17" ht="38.25" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>100</v>
@@ -9446,9 +9443,9 @@
         <v>804</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="29.25">
+    <row r="107" spans="1:17" ht="38.25" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>101</v>
@@ -9499,9 +9496,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="29.25">
+    <row r="108" spans="1:17" ht="38.25" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>102</v>
@@ -9552,9 +9549,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="29.25">
+    <row r="109" spans="1:17" ht="38.25" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>103</v>
@@ -9605,9 +9602,9 @@
         <v>804</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="42.75">
+    <row r="110" spans="1:17" ht="38.25" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>104</v>
@@ -9658,9 +9655,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="57.75">
+    <row r="111" spans="1:17" ht="38.25" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>105</v>
@@ -9711,9 +9708,9 @@
         <v>807</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="43.5">
+    <row r="112" spans="1:17" ht="38.25" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>835</v>
@@ -9764,9 +9761,9 @@
         <v>790</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" ht="38.25" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>106</v>
@@ -9817,9 +9814,9 @@
         <v>808</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" ht="38.25" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>107</v>
@@ -9870,9 +9867,9 @@
         <v>808</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="29.25">
+    <row r="115" spans="1:17" ht="38.25" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>108</v>
@@ -9923,9 +9920,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="29.25">
+    <row r="116" spans="1:17" ht="38.25" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>109</v>
@@ -9976,9 +9973,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="29.25">
+    <row r="117" spans="1:17" ht="38.25" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>110</v>
@@ -10029,9 +10026,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="29.25">
+    <row r="118" spans="1:17" ht="38.25" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>111</v>
@@ -10082,9 +10079,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="29.25">
+    <row r="119" spans="1:17" ht="38.25" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>112</v>
@@ -10135,9 +10132,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="42.75">
+    <row r="120" spans="1:17" ht="38.25" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>113</v>
@@ -10188,9 +10185,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="43.5">
+    <row r="121" spans="1:17" ht="38.25" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>114</v>
@@ -10241,9 +10238,9 @@
         <v>811</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="43.5">
+    <row r="122" spans="1:17" ht="38.25" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>115</v>
@@ -10294,9 +10291,9 @@
         <v>812</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="29.25">
+    <row r="123" spans="1:17" ht="38.25" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>116</v>
@@ -10347,9 +10344,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="43.5">
+    <row r="124" spans="1:17" ht="38.25" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>117</v>
@@ -10400,9 +10397,9 @@
         <v>811</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="29.25">
+    <row r="125" spans="1:17" ht="38.25" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>118</v>
@@ -10453,9 +10450,9 @@
         <v>814</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="28.5">
+    <row r="126" spans="1:17" ht="38.25" customHeight="1">
       <c r="A126" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>119</v>
@@ -10506,9 +10503,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="29.25">
+    <row r="127" spans="1:17" ht="38.25" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>120</v>
@@ -10559,9 +10556,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="43.5">
+    <row r="128" spans="1:17" ht="38.25" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>121</v>
@@ -10612,9 +10609,9 @@
         <v>816</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="43.5">
+    <row r="129" spans="1:17" ht="38.25" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>122</v>
@@ -10665,9 +10662,9 @@
         <v>817</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="43.5">
+    <row r="130" spans="1:17" ht="38.25" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>123</v>
@@ -10718,9 +10715,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="29.25">
+    <row r="131" spans="1:17" ht="38.25" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>124</v>
@@ -10771,9 +10768,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="29.25">
+    <row r="132" spans="1:17" ht="38.25" customHeight="1">
       <c r="A132" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>125</v>
@@ -10824,9 +10821,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="29.25">
+    <row r="133" spans="1:17" ht="38.25" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>126</v>
@@ -10877,9 +10874,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="43.5">
+    <row r="134" spans="1:17" ht="38.25" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>127</v>
@@ -10930,9 +10927,9 @@
         <v>819</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="43.5">
+    <row r="135" spans="1:17" ht="38.25" customHeight="1">
       <c r="A135" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>128</v>
@@ -10983,9 +10980,9 @@
         <v>820</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="43.5">
+    <row r="136" spans="1:17" ht="38.25" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>129</v>
@@ -11036,9 +11033,9 @@
         <v>821</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="29.25">
+    <row r="137" spans="1:17" ht="38.25" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>130</v>
@@ -11089,9 +11086,9 @@
         <v>804</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="29.25">
+    <row r="138" spans="1:17" ht="38.25" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>131</v>
@@ -11142,9 +11139,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="28.5">
+    <row r="139" spans="1:17" ht="38.25" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>132</v>
@@ -11195,9 +11192,9 @@
         <v>822</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="29.25">
+    <row r="140" spans="1:17" ht="38.25" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>133</v>
@@ -11248,9 +11245,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="29.25">
+    <row r="141" spans="1:17" ht="38.25" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>134</v>
@@ -11301,9 +11298,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="29.25">
+    <row r="142" spans="1:17" ht="38.25" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>135</v>
@@ -11354,9 +11351,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="29.25">
+    <row r="143" spans="1:17" ht="38.25" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>136</v>
@@ -11407,9 +11404,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="29.25">
+    <row r="144" spans="1:17" ht="38.25" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>137</v>
@@ -11460,9 +11457,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="29.25">
+    <row r="145" spans="1:17" ht="38.25" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>138</v>
@@ -11513,9 +11510,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="29.25">
+    <row r="146" spans="1:17" ht="38.25" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>139</v>
@@ -11566,9 +11563,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="29.25">
+    <row r="147" spans="1:17" ht="38.25" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>140</v>
@@ -11619,9 +11616,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="43.5">
+    <row r="148" spans="1:17" ht="38.25" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>141</v>
@@ -11672,9 +11669,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="29.25">
+    <row r="149" spans="1:17" ht="38.25" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>142</v>
@@ -11725,9 +11722,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="29.25">
+    <row r="150" spans="1:17" ht="38.25" customHeight="1">
       <c r="A150" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>143</v>
@@ -11778,9 +11775,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="43.5">
+    <row r="151" spans="1:17" ht="38.25" customHeight="1">
       <c r="A151" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>144</v>
@@ -11831,9 +11828,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="43.5">
+    <row r="152" spans="1:17" ht="38.25" customHeight="1">
       <c r="A152" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>145</v>
@@ -11884,9 +11881,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="29.25">
+    <row r="153" spans="1:17" ht="38.25" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>146</v>
@@ -11937,9 +11934,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="29.25">
+    <row r="154" spans="1:17" ht="38.25" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>147</v>
@@ -11990,9 +11987,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="29.25">
+    <row r="155" spans="1:17" ht="38.25" customHeight="1">
       <c r="A155" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>148</v>
@@ -12043,9 +12040,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="29.25">
+    <row r="156" spans="1:17" ht="38.25" customHeight="1">
       <c r="A156" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>149</v>
@@ -12096,9 +12093,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="29.25">
+    <row r="157" spans="1:17" ht="38.25" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>150</v>
@@ -12149,9 +12146,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="29.25">
+    <row r="158" spans="1:17" ht="38.25" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>151</v>
@@ -12202,9 +12199,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="29.25">
+    <row r="159" spans="1:17" ht="38.25" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>152</v>
@@ -12255,9 +12252,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" ht="38.25" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>153</v>
@@ -12308,9 +12305,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="29.25">
+    <row r="161" spans="1:17" ht="38.25" customHeight="1">
       <c r="A161" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>154</v>
@@ -12361,9 +12358,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="29.25">
+    <row r="162" spans="1:17" ht="38.25" customHeight="1">
       <c r="A162" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>155</v>
@@ -12414,9 +12411,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="29.25">
+    <row r="163" spans="1:17" ht="38.25" customHeight="1">
       <c r="A163" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>156</v>
@@ -12467,9 +12464,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="29.25">
+    <row r="164" spans="1:17" ht="38.25" customHeight="1">
       <c r="A164" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>157</v>
@@ -12520,9 +12517,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="29.25">
+    <row r="165" spans="1:17" ht="38.25" customHeight="1">
       <c r="A165" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>158</v>
@@ -12573,9 +12570,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="29.25">
+    <row r="166" spans="1:17" ht="38.25" customHeight="1">
       <c r="A166" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>159</v>
@@ -12626,9 +12623,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="29.25">
+    <row r="167" spans="1:17" ht="38.25" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>160</v>
@@ -12679,9 +12676,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="29.25">
+    <row r="168" spans="1:17" ht="38.25" customHeight="1">
       <c r="A168" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>161</v>
@@ -12732,9 +12729,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="29.25">
+    <row r="169" spans="1:17" ht="38.25" customHeight="1">
       <c r="A169" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>162</v>
@@ -12785,9 +12782,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="29.25">
+    <row r="170" spans="1:17" ht="38.25" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>163</v>
@@ -12838,9 +12835,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="29.25">
+    <row r="171" spans="1:17" ht="38.25" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>164</v>
@@ -12891,9 +12888,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="29.25">
+    <row r="172" spans="1:17" ht="38.25" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>165</v>
@@ -12944,9 +12941,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="29.25">
+    <row r="173" spans="1:17" ht="38.25" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>166</v>
@@ -12997,9 +12994,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="29.25">
+    <row r="174" spans="1:17" ht="38.25" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>167</v>
@@ -13050,9 +13047,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="29.25">
+    <row r="175" spans="1:17" ht="38.25" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>168</v>
@@ -13103,9 +13100,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="28.5">
+    <row r="176" spans="1:17" ht="38.25" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>169</v>
@@ -13156,9 +13153,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="29.25">
+    <row r="177" spans="1:17" ht="38.25" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>838</v>
@@ -13209,9 +13206,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="29.25">
+    <row r="178" spans="1:17" ht="38.25" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>170</v>
@@ -13262,9 +13259,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="29.25">
+    <row r="179" spans="1:17" ht="38.25" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>171</v>
@@ -13315,9 +13312,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="29.25">
+    <row r="180" spans="1:17" ht="38.25" customHeight="1">
       <c r="A180" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>172</v>
@@ -13368,9 +13365,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="29.25">
+    <row r="181" spans="1:17" ht="38.25" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>173</v>
@@ -13421,9 +13418,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="29.25">
+    <row r="182" spans="1:17" ht="38.25" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>174</v>
@@ -13474,9 +13471,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="29.25">
+    <row r="183" spans="1:17" ht="38.25" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>175</v>
@@ -13527,9 +13524,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="29.25">
+    <row r="184" spans="1:17" ht="38.25" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>176</v>
@@ -13580,15 +13577,15 @@
         <v>815</v>
       </c>
     </row>
-    <row r="185" spans="1:17" customFormat="1" ht="30">
+    <row r="185" spans="1:17" customFormat="1" ht="38.25" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B185" t="s">
         <v>945</v>
       </c>
       <c r="C185" s="73" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D185" t="s">
         <v>946</v>
@@ -13633,9 +13630,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="29.25">
+    <row r="186" spans="1:17" ht="38.25" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>178</v>
@@ -13686,9 +13683,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="29.25">
+    <row r="187" spans="1:17" ht="38.25" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>179</v>
@@ -13739,9 +13736,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="29.25">
+    <row r="188" spans="1:17" ht="38.25" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>180</v>
@@ -13792,9 +13789,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="29.25">
+    <row r="189" spans="1:17" ht="38.25" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>840</v>
@@ -13845,9 +13842,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="29.25">
+    <row r="190" spans="1:17" ht="38.25" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>181</v>
@@ -13898,9 +13895,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="29.25">
+    <row r="191" spans="1:17" ht="38.25" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>182</v>
@@ -13951,9 +13948,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="29.25">
+    <row r="192" spans="1:17" ht="38.25" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>183</v>
@@ -14004,15 +14001,15 @@
         <v>815</v>
       </c>
     </row>
-    <row r="193" spans="1:17" s="57" customFormat="1" ht="29.25">
+    <row r="193" spans="1:17" s="57" customFormat="1" ht="38.25" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B193" s="57" t="s">
         <v>939</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D193" s="57" t="s">
         <v>940</v>
@@ -14057,9 +14054,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="29.25">
+    <row r="194" spans="1:17" ht="38.25" customHeight="1">
       <c r="A194" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>185</v>
@@ -14110,9 +14107,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="29.25">
+    <row r="195" spans="1:17" ht="38.25" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>185</v>
@@ -14163,9 +14160,9 @@
         <v>828</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="29.25">
+    <row r="196" spans="1:17" ht="38.25" customHeight="1">
       <c r="A196" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>186</v>
@@ -14216,9 +14213,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="29.25">
+    <row r="197" spans="1:17" ht="38.25" customHeight="1">
       <c r="A197" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>187</v>
@@ -14269,9 +14266,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="29.25">
+    <row r="198" spans="1:17" ht="38.25" customHeight="1">
       <c r="A198" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>188</v>
@@ -14322,9 +14319,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="29.25">
+    <row r="199" spans="1:17" ht="38.25" customHeight="1">
       <c r="A199" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>189</v>
@@ -14375,9 +14372,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="57.75">
+    <row r="200" spans="1:17" ht="38.25" customHeight="1">
       <c r="A200" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>190</v>
@@ -14428,9 +14425,9 @@
         <v>829</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="29.25">
+    <row r="201" spans="1:17" ht="38.25" customHeight="1">
       <c r="A201" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>191</v>
@@ -14481,9 +14478,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="28.5">
+    <row r="202" spans="1:17" ht="38.25" customHeight="1">
       <c r="A202" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>192</v>
@@ -14534,9 +14531,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="29.25">
+    <row r="203" spans="1:17" ht="38.25" customHeight="1">
       <c r="A203" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>193</v>
@@ -14587,9 +14584,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="204" spans="1:17" customFormat="1" ht="30">
+    <row r="204" spans="1:17" customFormat="1" ht="38.25" customHeight="1">
       <c r="A204" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B204" t="s">
         <v>936</v>
@@ -14640,9 +14637,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" ht="38.25" customHeight="1">
       <c r="A205" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>195</v>
@@ -14693,9 +14690,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="28.5">
+    <row r="206" spans="1:17" ht="38.25" customHeight="1">
       <c r="A206" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>842</v>
@@ -14746,9 +14743,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="29.25">
+    <row r="207" spans="1:17" ht="38.25" customHeight="1">
       <c r="A207" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>196</v>
@@ -14799,9 +14796,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="28.5">
+    <row r="208" spans="1:17" ht="38.25" customHeight="1">
       <c r="A208" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>197</v>
@@ -14852,9 +14849,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="29.25">
+    <row r="209" spans="1:17" ht="38.25" customHeight="1">
       <c r="A209" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>198</v>
@@ -14905,9 +14902,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="29.25">
+    <row r="210" spans="1:17" ht="38.25" customHeight="1">
       <c r="A210" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>199</v>
@@ -14958,9 +14955,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="28.5">
+    <row r="211" spans="1:17" ht="38.25" customHeight="1">
       <c r="A211" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>200</v>
@@ -15011,9 +15008,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="29.25">
+    <row r="212" spans="1:17" ht="38.25" customHeight="1">
       <c r="A212" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>201</v>
@@ -15064,9 +15061,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="28.5">
+    <row r="213" spans="1:17" ht="38.25" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>202</v>
@@ -15117,9 +15114,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="29.25">
+    <row r="214" spans="1:17" ht="38.25" customHeight="1">
       <c r="A214" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>203</v>
@@ -15170,9 +15167,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="29.25">
+    <row r="215" spans="1:17" ht="38.25" customHeight="1">
       <c r="A215" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>204</v>
@@ -15223,9 +15220,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="43.5">
+    <row r="216" spans="1:17" ht="38.25" customHeight="1">
       <c r="A216" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>205</v>
@@ -15276,9 +15273,9 @@
         <v>830</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="29.25">
+    <row r="217" spans="1:17" ht="38.25" customHeight="1">
       <c r="A217" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>206</v>
@@ -15329,9 +15326,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="28.5">
+    <row r="218" spans="1:17" ht="38.25" customHeight="1">
       <c r="A218" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>207</v>
@@ -15382,9 +15379,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="29.25">
+    <row r="219" spans="1:17" ht="38.25" customHeight="1">
       <c r="A219" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>208</v>
@@ -15435,9 +15432,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="29.25">
+    <row r="220" spans="1:17" ht="38.25" customHeight="1">
       <c r="A220" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>209</v>
@@ -15488,9 +15485,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="29.25">
+    <row r="221" spans="1:17" ht="38.25" customHeight="1">
       <c r="A221" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>210</v>
@@ -15541,9 +15538,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="29.25">
+    <row r="222" spans="1:17" ht="38.25" customHeight="1">
       <c r="A222" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>211</v>
@@ -15594,9 +15591,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="29.25">
+    <row r="223" spans="1:17" ht="38.25" customHeight="1">
       <c r="A223" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>212</v>
@@ -15647,9 +15644,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="28.5">
+    <row r="224" spans="1:17" ht="38.25" customHeight="1">
       <c r="A224" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>213</v>
@@ -15700,9 +15697,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="29.25">
+    <row r="225" spans="1:18" ht="38.25" customHeight="1">
       <c r="A225" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>214</v>
@@ -15753,9 +15750,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="29.25">
+    <row r="226" spans="1:18" ht="38.25" customHeight="1">
       <c r="A226" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>215</v>
@@ -15806,9 +15803,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="29.25">
+    <row r="227" spans="1:18" ht="38.25" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>216</v>
@@ -15859,9 +15856,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="29.25">
+    <row r="228" spans="1:18" ht="38.25" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>217</v>
@@ -15912,9 +15909,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="29.25">
+    <row r="229" spans="1:18" ht="38.25" customHeight="1">
       <c r="A229" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>218</v>
@@ -15965,9 +15962,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="29.25">
+    <row r="230" spans="1:18" ht="38.25" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>219</v>
@@ -16018,9 +16015,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="29.25">
+    <row r="231" spans="1:18" ht="38.25" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>220</v>
@@ -16071,9 +16068,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="29.25">
+    <row r="232" spans="1:18" ht="38.25" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>221</v>
@@ -16124,9 +16121,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="28.5">
+    <row r="233" spans="1:18" ht="38.25" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>222</v>
@@ -16177,9 +16174,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="29.25">
+    <row r="234" spans="1:18" ht="38.25" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>223</v>
@@ -16230,9 +16227,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="29.25">
+    <row r="235" spans="1:18" ht="38.25" customHeight="1">
       <c r="A235" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>224</v>
@@ -16283,9 +16280,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="29.25">
+    <row r="236" spans="1:18" ht="38.25" customHeight="1">
       <c r="A236" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>225</v>
@@ -16336,9 +16333,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="237" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="237" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A237" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>226</v>
@@ -16390,9 +16387,9 @@
       </c>
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="238" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A238" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B238" s="47" t="s">
         <v>227</v>
@@ -16444,9 +16441,9 @@
       </c>
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="239" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A239" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B239" s="47" t="s">
         <v>228</v>
@@ -16498,9 +16495,9 @@
       </c>
       <c r="R239" s="1"/>
     </row>
-    <row r="240" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="240" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A240" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B240" s="47" t="s">
         <v>229</v>
@@ -16552,9 +16549,9 @@
       </c>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="241" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A241" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B241" s="47" t="s">
         <v>230</v>
@@ -16606,9 +16603,9 @@
       </c>
       <c r="R241" s="1"/>
     </row>
-    <row r="242" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="242" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A242" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B242" s="47" t="s">
         <v>231</v>
@@ -16660,9 +16657,9 @@
       </c>
       <c r="R242" s="1"/>
     </row>
-    <row r="243" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="243" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A243" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B243" s="47" t="s">
         <v>232</v>
@@ -16714,9 +16711,9 @@
       </c>
       <c r="R243" s="1"/>
     </row>
-    <row r="244" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="244" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A244" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B244" s="47" t="s">
         <v>233</v>
@@ -16768,9 +16765,9 @@
       </c>
       <c r="R244" s="1"/>
     </row>
-    <row r="245" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="245" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A245" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B245" s="47" t="s">
         <v>234</v>
@@ -16822,9 +16819,9 @@
       </c>
       <c r="R245" s="1"/>
     </row>
-    <row r="246" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="246" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A246" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B246" s="47" t="s">
         <v>235</v>
@@ -16876,9 +16873,9 @@
       </c>
       <c r="R246" s="1"/>
     </row>
-    <row r="247" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="247" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A247" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B247" s="47" t="s">
         <v>236</v>
@@ -16930,9 +16927,9 @@
       </c>
       <c r="R247" s="1"/>
     </row>
-    <row r="248" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="248" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A248" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B248" s="47" t="s">
         <v>237</v>
@@ -16984,9 +16981,9 @@
       </c>
       <c r="R248" s="1"/>
     </row>
-    <row r="249" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="249" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A249" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B249" s="47" t="s">
         <v>238</v>
@@ -17038,9 +17035,9 @@
       </c>
       <c r="R249" s="1"/>
     </row>
-    <row r="250" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="250" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A250" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B250" s="47" t="s">
         <v>239</v>
@@ -17092,9 +17089,9 @@
       </c>
       <c r="R250" s="1"/>
     </row>
-    <row r="251" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="251" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A251" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B251" s="47" t="s">
         <v>240</v>
@@ -17146,9 +17143,9 @@
       </c>
       <c r="R251" s="1"/>
     </row>
-    <row r="252" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="252" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A252" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B252" s="47" t="s">
         <v>241</v>
@@ -17200,9 +17197,9 @@
       </c>
       <c r="R252" s="1"/>
     </row>
-    <row r="253" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="253" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A253" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B253" s="47" t="s">
         <v>242</v>
@@ -17254,9 +17251,9 @@
       </c>
       <c r="R253" s="1"/>
     </row>
-    <row r="254" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="254" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A254" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B254" s="47" t="s">
         <v>243</v>
@@ -17308,9 +17305,9 @@
       </c>
       <c r="R254" s="1"/>
     </row>
-    <row r="255" spans="1:18" s="39" customFormat="1">
+    <row r="255" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A255" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B255" s="48" t="s">
         <v>244</v>
@@ -17362,9 +17359,9 @@
       </c>
       <c r="R255" s="1"/>
     </row>
-    <row r="256" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="256" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A256" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B256" s="44" t="s">
         <v>245</v>
@@ -17416,9 +17413,9 @@
       </c>
       <c r="R256" s="1"/>
     </row>
-    <row r="257" spans="1:18" s="39" customFormat="1" ht="29.25">
+    <row r="257" spans="1:18" s="39" customFormat="1" ht="38.25" customHeight="1">
       <c r="A257" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B257" s="44" t="s">
         <v>246</v>
@@ -17470,9 +17467,9 @@
       </c>
       <c r="R257" s="1"/>
     </row>
-    <row r="258" spans="1:18" s="69" customFormat="1">
+    <row r="258" spans="1:18" s="69" customFormat="1" ht="38.25" customHeight="1">
       <c r="A258" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B258" s="64" t="s">
         <v>247</v>
@@ -17524,9 +17521,9 @@
       </c>
       <c r="R258" s="72"/>
     </row>
-    <row r="259" spans="1:18" s="12" customFormat="1">
+    <row r="259" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>194</v>
@@ -17577,9 +17574,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="260" spans="1:18" s="12" customFormat="1" ht="29.25">
+    <row r="260" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A260" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B260" s="12" t="s">
         <v>184</v>
@@ -17630,9 +17627,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="261" spans="1:18" s="12" customFormat="1">
+    <row r="261" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A261" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B261" s="12" t="s">
         <v>177</v>
@@ -17683,9 +17680,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="262" spans="1:18" s="12" customFormat="1" ht="29.25">
+    <row r="262" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A262" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B262" s="12" t="s">
         <v>950</v>
@@ -17736,9 +17733,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="263" spans="1:18" s="12" customFormat="1" ht="43.5">
+    <row r="263" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A263" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>952</v>
@@ -17789,9 +17786,9 @@
         <v>977</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="12" customFormat="1">
+    <row r="264" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A264" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B264" s="12" t="s">
         <v>954</v>
@@ -17842,9 +17839,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="12" customFormat="1">
+    <row r="265" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A265" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B265" s="12" t="s">
         <v>958</v>
@@ -17895,9 +17892,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="12" customFormat="1">
+    <row r="266" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A266" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B266" s="12" t="s">
         <v>962</v>
@@ -17948,9 +17945,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="12" customFormat="1" ht="29.25">
+    <row r="267" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A267" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>967</v>
@@ -17989,7 +17986,7 @@
         <v>973</v>
       </c>
       <c r="N267" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O267" s="12" t="s">
         <v>973</v>
@@ -18001,9 +17998,9 @@
         <v>978</v>
       </c>
     </row>
-    <row r="268" spans="1:18" s="12" customFormat="1" ht="29.25">
+    <row r="268" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A268" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B268" s="12" t="s">
         <v>969</v>
@@ -18042,7 +18039,7 @@
         <v>973</v>
       </c>
       <c r="N268" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O268" s="12" t="s">
         <v>973</v>
@@ -18054,9 +18051,9 @@
         <v>978</v>
       </c>
     </row>
-    <row r="269" spans="1:18" s="12" customFormat="1" ht="29.25">
+    <row r="269" spans="1:18" s="12" customFormat="1" ht="38.25" customHeight="1">
       <c r="A269" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>970</v>
@@ -18095,7 +18092,7 @@
         <v>973</v>
       </c>
       <c r="N269" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O269" s="12" t="s">
         <v>973</v>
@@ -18107,21 +18104,21 @@
         <v>978</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="83" customFormat="1" ht="43.5">
+    <row r="270" spans="1:18" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="A270" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B270" s="77" t="s">
+        <v>986</v>
+      </c>
+      <c r="C270" s="78" t="s">
         <v>987</v>
       </c>
-      <c r="C270" s="78" t="s">
+      <c r="D270" s="77" t="s">
         <v>988</v>
       </c>
-      <c r="D270" s="77" t="s">
+      <c r="E270" s="79" t="s">
         <v>989</v>
-      </c>
-      <c r="E270" s="79" t="s">
-        <v>990</v>
       </c>
       <c r="F270" s="80">
         <v>30.682600000000001</v>
@@ -18159,21 +18156,21 @@
       </c>
       <c r="R270" s="82"/>
     </row>
-    <row r="271" spans="1:18" s="83" customFormat="1">
+    <row r="271" spans="1:18" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="A271" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B271" s="84" t="s">
+        <v>991</v>
+      </c>
+      <c r="C271" s="85" t="s">
         <v>992</v>
       </c>
-      <c r="C271" s="85" t="s">
-        <v>993</v>
-      </c>
       <c r="D271" s="83" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E271" s="83" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F271" s="80">
         <v>26.223700000000001</v>
@@ -18182,7 +18179,7 @@
         <v>-94.673699999999997</v>
       </c>
       <c r="H271" s="86" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I271" s="12" t="s">
         <v>868</v>
@@ -18212,21 +18209,21 @@
         <v>779</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="83" customFormat="1">
+    <row r="272" spans="1:18" s="83" customFormat="1" ht="38.25" customHeight="1">
       <c r="A272" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B272" s="83" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C272" s="85" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D272" s="83" t="s">
+        <v>995</v>
+      </c>
+      <c r="E272" s="83" t="s">
         <v>996</v>
-      </c>
-      <c r="E272" s="83" t="s">
-        <v>997</v>
       </c>
       <c r="F272" s="80">
         <v>28.363399999999999</v>
@@ -18235,7 +18232,7 @@
         <v>-87.923599999999993</v>
       </c>
       <c r="H272" s="86" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I272" s="12" t="s">
         <v>868</v>
@@ -18263,11 +18260,6 @@
       </c>
       <c r="Q272" s="83" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -18760,7 +18752,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="95.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -18814,9 +18806,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="43.5">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="409.6">
       <c r="A2" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>38</v>
